--- a/public/voters.xlsx
+++ b/public/voters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/homebrew/var/www/personal/musda/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/homebrew/var/www/personal/musda/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DECA315-67D4-A943-9C88-81F93E0BDCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C69DC3-76CF-3641-96CD-3CB9D61ED666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26980" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Ketua PCM Kandangan</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Ikatan Pelajar Muhammadiyah #2</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E54AE6-2C2B-124C-A2C4-41128124E245}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -568,436 +571,598 @@
     <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>6112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>8277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>8707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>5093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>6407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>6198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>7318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>5533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>6674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>6852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>7482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>6788</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>9258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>8565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>7736</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>8943</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>6579</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>8979</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>9598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>9056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>9062</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>7223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>6215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>7319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>7794</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>9742</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>8963</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="C54">
+        <v>7985</v>
       </c>
     </row>
   </sheetData>
